--- a/theme/static/templates/template_budget.xlsx
+++ b/theme/static/templates/template_budget.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Documents/GitHub/ppi_app/delivered_2024_01/src/assets/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CS NOTES\MY PROJECTS\POLIAGENTX\theme\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4946E46-64D8-8748-831E-1AD727E9A991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC1DE37-C815-44EF-9C89-C591442AD689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="2" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="template_expenditure" sheetId="10" r:id="rId1"/>
     <sheet name="template_relation_table" sheetId="11" r:id="rId2"/>
     <sheet name="metadata" sheetId="6" r:id="rId3"/>
-    <sheet name="example_expenditure" sheetId="12" r:id="rId4"/>
-    <sheet name="example_relation_table" sheetId="13" r:id="rId5"/>
+    <sheet name="template_budget" sheetId="12" r:id="rId4"/>
+    <sheet name="template_relation" sheetId="13" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -376,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,11 +493,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -811,14 +820,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -826,49 +835,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="B16" s="5"/>
     </row>
   </sheetData>
@@ -882,15 +891,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -934,32 +943,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFA1E10-1A34-074F-A30B-595213B50AE6}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="78.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" ht="75" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="88" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="84">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -967,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="88" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="84">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -975,21 +984,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:2" ht="81" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" s="4" customFormat="1">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="286" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="252">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="374" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="374.1" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1018,18 +1027,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1018CA09-273F-B848-B10A-76DA3AF31ACC}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>5.0641193446625996</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>18.147404353417599</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1061,7 +1070,7 @@
         <v>28.132489762811201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>36.854048944199299</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1077,7 +1086,7 @@
         <v>1.1037619241888099</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1085,7 +1094,7 @@
         <v>14.662695843645199</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>19.921453439161098</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>11.6748254673111</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>33.013555298912301</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>1.89833513462774</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>34.648824458046001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>0.31531198967728502</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>0.64570861816440295</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>2.8990079376763398</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1166,19 +1175,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7011E7-8863-4142-9FB7-06ADDCCDC9E9}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -1361,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
         <v>37</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -1506,7 +1515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -1534,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -1562,7 +1571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="10" t="s">
         <v>49</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="10" t="s">
         <v>50</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
         <v>51</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
         <v>52</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
         <v>55</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
         <v>57</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
         <v>58</v>
       </c>
@@ -1726,7 +1735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
         <v>59</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
         <v>62</v>
       </c>
@@ -1776,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
         <v>63</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
         <v>64</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
         <v>65</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
         <v>66</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
         <v>67</v>
       </c>
@@ -1846,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
         <v>68</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
         <v>69</v>
       </c>
@@ -1871,7 +1880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="10" t="s">
         <v>70</v>
       </c>
@@ -1885,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="10" t="s">
         <v>71</v>
       </c>
@@ -1896,7 +1905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="10" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
         <v>73</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
         <v>74</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="10" t="s">
         <v>75</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="10" t="s">
         <v>76</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="10" t="s">
         <v>77</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="10" t="s">
         <v>78</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
@@ -1999,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="10" t="s">
         <v>80</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="10" t="s">
         <v>81</v>
       </c>

--- a/theme/static/templates/template_budget.xlsx
+++ b/theme/static/templates/template_budget.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa83c6c3ce4931c5/Desktop/ppi/tutorials/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CS NOTES\MY PROJECTS\POLIAGENTX\theme\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B84155F-3244-4B8B-8E0B-1D1A6CD9FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47910CA5-EBB7-487B-9F4A-8202E5572F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C0929F4-2DA3-4BF0-9179-BADF23964158}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16E06E16-2553-4B9F-AC63-B0E58E8BBA9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_expenditure" sheetId="1" r:id="rId1"/>
+    <sheet name="raw_expenditure" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4F3215-ECC2-4F5F-83AC-8BDAB752BD11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE7647-0A26-4794-BD58-16BB19E9AE99}">
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -874,73 +874,73 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>2001</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>2002</v>
       </c>
       <c r="E1">
-        <v>3</v>
+        <v>2003</v>
       </c>
       <c r="F1">
-        <v>4</v>
+        <v>2004</v>
       </c>
       <c r="G1">
-        <v>5</v>
+        <v>2005</v>
       </c>
       <c r="H1">
-        <v>6</v>
+        <v>2006</v>
       </c>
       <c r="I1">
-        <v>7</v>
+        <v>2007</v>
       </c>
       <c r="J1">
-        <v>8</v>
+        <v>2008</v>
       </c>
       <c r="K1">
-        <v>9</v>
+        <v>2009</v>
       </c>
       <c r="L1">
-        <v>10</v>
+        <v>2010</v>
       </c>
       <c r="M1">
-        <v>11</v>
+        <v>2011</v>
       </c>
       <c r="N1">
-        <v>12</v>
+        <v>2012</v>
       </c>
       <c r="O1">
-        <v>13</v>
+        <v>2013</v>
       </c>
       <c r="P1">
-        <v>14</v>
+        <v>2014</v>
       </c>
       <c r="Q1">
-        <v>15</v>
+        <v>2015</v>
       </c>
       <c r="R1">
-        <v>16</v>
+        <v>2016</v>
       </c>
       <c r="S1">
-        <v>17</v>
+        <v>2017</v>
       </c>
       <c r="T1">
-        <v>18</v>
+        <v>2018</v>
       </c>
       <c r="U1">
-        <v>19</v>
+        <v>2019</v>
       </c>
       <c r="V1">
-        <v>20</v>
+        <v>2020</v>
       </c>
       <c r="W1">
-        <v>21</v>
+        <v>2021</v>
       </c>
       <c r="X1">
-        <v>22</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -948,73 +948,73 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>76.101459637114104</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>75.407459839842403</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>78.815556106941699</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>75.029465587072593</v>
       </c>
       <c r="F2">
-        <v>77</v>
+        <v>77.059207726586806</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>79.300656789105304</v>
       </c>
       <c r="H2">
-        <v>77</v>
+        <v>77.349554452048096</v>
       </c>
       <c r="I2">
-        <v>75</v>
+        <v>75.193281109460898</v>
       </c>
       <c r="J2">
-        <v>78</v>
+        <v>78.546465686299399</v>
       </c>
       <c r="K2">
-        <v>78</v>
+        <v>78.9187703202291</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>75.845680783913807</v>
       </c>
       <c r="M2">
-        <v>75</v>
+        <v>75.7179967921669</v>
       </c>
       <c r="N2">
-        <v>76</v>
+        <v>76.326665979661101</v>
       </c>
       <c r="O2">
-        <v>79</v>
+        <v>79.629445765169095</v>
       </c>
       <c r="P2">
-        <v>77</v>
+        <v>77.001898928348794</v>
       </c>
       <c r="Q2">
-        <v>79</v>
+        <v>79.495359241932206</v>
       </c>
       <c r="R2">
-        <v>75</v>
+        <v>75.265309556968305</v>
       </c>
       <c r="S2">
-        <v>79</v>
+        <v>79.182231119694507</v>
       </c>
       <c r="T2">
-        <v>76</v>
+        <v>76.7370241207948</v>
       </c>
       <c r="U2">
-        <v>75</v>
+        <v>75.045972069888904</v>
       </c>
       <c r="V2">
-        <v>76</v>
+        <v>76.856820372914001</v>
       </c>
       <c r="W2">
-        <v>79</v>
+        <v>79.631566582458504</v>
       </c>
       <c r="X2">
-        <v>75</v>
+        <v>75.978326002630695</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1022,73 +1022,73 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>27.733505765678</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>30.359303649822301</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>27.047537891094802</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>29.349506460033499</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>27.634046258761799</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>26.086381196004702</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>30.635199950599301</v>
       </c>
       <c r="I3">
-        <v>26</v>
+        <v>26.983303000107</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>30.899116735958401</v>
       </c>
       <c r="K3">
-        <v>29</v>
+        <v>29.7795325940872</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>29.351809983379301</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>26.155449953122599</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>27.959008182368699</v>
       </c>
       <c r="O3">
-        <v>30</v>
+        <v>30.8559506089568</v>
       </c>
       <c r="P3">
-        <v>28</v>
+        <v>28.324058610089001</v>
       </c>
       <c r="Q3">
-        <v>29</v>
+        <v>29.323354296207601</v>
       </c>
       <c r="R3">
-        <v>29</v>
+        <v>29.304476204137099</v>
       </c>
       <c r="S3">
-        <v>28</v>
+        <v>28.0765199926532</v>
       </c>
       <c r="T3">
-        <v>30</v>
+        <v>30.885578228626901</v>
       </c>
       <c r="U3">
-        <v>27</v>
+        <v>27.761037373600001</v>
       </c>
       <c r="V3">
-        <v>30</v>
+        <v>30.3639163532211</v>
       </c>
       <c r="W3">
-        <v>27</v>
+        <v>27.955566358215801</v>
       </c>
       <c r="X3">
-        <v>29</v>
+        <v>29.489618848747</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1096,73 +1096,73 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>14.967627933212199</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>16.289915879208301</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>14.319871741165001</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>15.7792685511263</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>14.0138171351871</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>15.585717311972299</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>15.559115958947899</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>15.7496395465141</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>17.1411962759015</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>15.251614472730701</v>
       </c>
       <c r="L4">
-        <v>16</v>
+        <v>16.759466228961699</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>14.7164937544872</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>18.929873817895398</v>
       </c>
       <c r="O4">
-        <v>18</v>
+        <v>18.282328902252299</v>
       </c>
       <c r="P4">
-        <v>17</v>
+        <v>17.634532190494198</v>
       </c>
       <c r="Q4">
-        <v>18</v>
+        <v>18.607786540742101</v>
       </c>
       <c r="R4">
-        <v>18</v>
+        <v>18.142628783062801</v>
       </c>
       <c r="S4">
-        <v>16</v>
+        <v>16.176428507380301</v>
       </c>
       <c r="T4">
-        <v>18</v>
+        <v>18.696378379694298</v>
       </c>
       <c r="U4">
-        <v>15</v>
+        <v>15.949757382665201</v>
       </c>
       <c r="V4">
-        <v>15</v>
+        <v>15.7640684617069</v>
       </c>
       <c r="W4">
-        <v>14</v>
+        <v>14.8828995438038</v>
       </c>
       <c r="X4">
-        <v>16</v>
+        <v>16.2090152243216</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1170,73 +1170,73 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>53.130442495449898</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>53.308972167173202</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>52.664088950041098</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>50.485032586545202</v>
       </c>
       <c r="F5">
-        <v>52</v>
+        <v>52.478832694481</v>
       </c>
       <c r="G5">
-        <v>50</v>
+        <v>50.363236277663503</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>52.765068977145503</v>
       </c>
       <c r="I5">
-        <v>54</v>
+        <v>54.764520525602201</v>
       </c>
       <c r="J5">
-        <v>52</v>
+        <v>52.262026350380502</v>
       </c>
       <c r="K5">
-        <v>53</v>
+        <v>53.589579781523902</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>50.710213801660103</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>52.849717779396101</v>
       </c>
       <c r="N5">
-        <v>52</v>
+        <v>52.513218571645098</v>
       </c>
       <c r="O5">
-        <v>54</v>
+        <v>54.3792660252468</v>
       </c>
       <c r="P5">
-        <v>52</v>
+        <v>52.031700756596599</v>
       </c>
       <c r="Q5">
-        <v>54</v>
+        <v>54.981680892280103</v>
       </c>
       <c r="R5">
-        <v>50</v>
+        <v>50.097031957916201</v>
       </c>
       <c r="S5">
-        <v>54</v>
+        <v>54.905479137260997</v>
       </c>
       <c r="T5">
-        <v>52</v>
+        <v>52.281981511597898</v>
       </c>
       <c r="U5">
-        <v>52</v>
+        <v>52.357182151201897</v>
       </c>
       <c r="V5">
-        <v>51</v>
+        <v>51.329551526440902</v>
       </c>
       <c r="W5">
-        <v>50</v>
+        <v>50.403683997960101</v>
       </c>
       <c r="X5">
-        <v>52</v>
+        <v>52.877299243321097</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1244,73 +1244,73 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>34.8784397919014</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>34.487903541220597</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>32.202287115981399</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>34.6605673937418</v>
       </c>
       <c r="F6">
-        <v>34</v>
+        <v>34.719991177407799</v>
       </c>
       <c r="G6">
-        <v>35</v>
+        <v>35.556515744083796</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>35.509772973368499</v>
       </c>
       <c r="I6">
-        <v>34</v>
+        <v>34.8418710290779</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>35.996052798106497</v>
       </c>
       <c r="K6">
-        <v>34</v>
+        <v>34.894694217960698</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>32.061634665545498</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>35.0313090250676</v>
       </c>
       <c r="N6">
-        <v>35</v>
+        <v>35.690843111191597</v>
       </c>
       <c r="O6">
-        <v>34</v>
+        <v>34.162980595835201</v>
       </c>
       <c r="P6">
-        <v>34</v>
+        <v>34.716396185672998</v>
       </c>
       <c r="Q6">
-        <v>35</v>
+        <v>35.6830377906305</v>
       </c>
       <c r="R6">
-        <v>34</v>
+        <v>34.874965408271699</v>
       </c>
       <c r="S6">
-        <v>34</v>
+        <v>34.199572620082002</v>
       </c>
       <c r="T6">
-        <v>34</v>
+        <v>34.333912691938501</v>
       </c>
       <c r="U6">
-        <v>35</v>
+        <v>35.516864828421497</v>
       </c>
       <c r="V6">
-        <v>34</v>
+        <v>34.550722051294898</v>
       </c>
       <c r="W6">
-        <v>33</v>
+        <v>33.453961457391003</v>
       </c>
       <c r="X6">
-        <v>35</v>
+        <v>35.459352073899097</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1318,73 +1318,73 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>18.067374918215201</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>18.913179672854401</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>22.571486033320902</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>18.391028973671698</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>22.621346603683001</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>19.003758221624501</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>19.343980069118999</v>
       </c>
       <c r="I7">
-        <v>22</v>
+        <v>22.9656081985746</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>20.8940708947217</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>18.970781840390501</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>18.079362860382801</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>20.764678966551699</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>20.6812405904687</v>
       </c>
       <c r="O7">
-        <v>18</v>
+        <v>18.3473955151733</v>
       </c>
       <c r="P7">
-        <v>19</v>
+        <v>19.472176501991601</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>19.6975282246907</v>
       </c>
       <c r="R7">
-        <v>22</v>
+        <v>22.725357792954998</v>
       </c>
       <c r="S7">
-        <v>18</v>
+        <v>18.776422276567299</v>
       </c>
       <c r="T7">
-        <v>21</v>
+        <v>21.232735014004501</v>
       </c>
       <c r="U7">
-        <v>18</v>
+        <v>18.807887213640999</v>
       </c>
       <c r="V7">
-        <v>21</v>
+        <v>21.389369404095799</v>
       </c>
       <c r="W7">
-        <v>21</v>
+        <v>21.560489035357602</v>
       </c>
       <c r="X7">
-        <v>21</v>
+        <v>21.9604128387234</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1392,73 +1392,73 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>72.0018926288747</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>75.556812054569093</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>76.236047124506996</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>72.5455032675643</v>
       </c>
       <c r="F8">
-        <v>72</v>
+        <v>72.029557582089893</v>
       </c>
       <c r="G8">
-        <v>73</v>
+        <v>73.6342232417053</v>
       </c>
       <c r="H8">
-        <v>74</v>
+        <v>74.154735161493704</v>
       </c>
       <c r="I8">
-        <v>74</v>
+        <v>74.416242420156806</v>
       </c>
       <c r="J8">
-        <v>75</v>
+        <v>75.117644606859002</v>
       </c>
       <c r="K8">
-        <v>74</v>
+        <v>74.058324073525796</v>
       </c>
       <c r="L8">
-        <v>73</v>
+        <v>73.883172462383399</v>
       </c>
       <c r="M8">
-        <v>72</v>
+        <v>72.014499261826501</v>
       </c>
       <c r="N8">
-        <v>73</v>
+        <v>73.984608114532804</v>
       </c>
       <c r="O8">
-        <v>74</v>
+        <v>74.409749961434798</v>
       </c>
       <c r="P8">
-        <v>76</v>
+        <v>76.023277591571002</v>
       </c>
       <c r="Q8">
-        <v>73</v>
+        <v>73.086174961024398</v>
       </c>
       <c r="R8">
-        <v>75</v>
+        <v>75.281867155499398</v>
       </c>
       <c r="S8">
-        <v>72</v>
+        <v>72.2219268882194</v>
       </c>
       <c r="T8">
-        <v>75</v>
+        <v>75.506843846234105</v>
       </c>
       <c r="U8">
-        <v>72</v>
+        <v>72.508493124184895</v>
       </c>
       <c r="V8">
-        <v>73</v>
+        <v>73.497118402735694</v>
       </c>
       <c r="W8">
-        <v>74</v>
+        <v>74.220234040560499</v>
       </c>
       <c r="X8">
-        <v>76</v>
+        <v>76.228077309823405</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1466,73 +1466,73 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>83.155956587916904</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>84.478164250934597</v>
       </c>
       <c r="D9">
-        <v>86</v>
+        <v>86.623278469538107</v>
       </c>
       <c r="E9">
-        <v>83</v>
+        <v>83.927197585145095</v>
       </c>
       <c r="F9">
-        <v>82</v>
+        <v>82.249884701996294</v>
       </c>
       <c r="G9">
-        <v>86</v>
+        <v>86.156838711596805</v>
       </c>
       <c r="H9">
-        <v>84</v>
+        <v>84.723290544310302</v>
       </c>
       <c r="I9">
-        <v>83</v>
+        <v>83.249382888669601</v>
       </c>
       <c r="J9">
-        <v>83</v>
+        <v>83.727024227787595</v>
       </c>
       <c r="K9">
-        <v>83</v>
+        <v>83.4832230341421</v>
       </c>
       <c r="L9">
-        <v>82</v>
+        <v>82.141418649262604</v>
       </c>
       <c r="M9">
-        <v>83</v>
+        <v>83.508566520478993</v>
       </c>
       <c r="N9">
-        <v>84</v>
+        <v>84.580648575630207</v>
       </c>
       <c r="O9">
-        <v>85</v>
+        <v>85.565120057582106</v>
       </c>
       <c r="P9">
-        <v>85</v>
+        <v>85.056890470424705</v>
       </c>
       <c r="Q9">
-        <v>84</v>
+        <v>84.153153729924099</v>
       </c>
       <c r="R9">
-        <v>86</v>
+        <v>86.272066312301604</v>
       </c>
       <c r="S9">
-        <v>82</v>
+        <v>82.022157154708694</v>
       </c>
       <c r="T9">
-        <v>83</v>
+        <v>83.230945476783504</v>
       </c>
       <c r="U9">
-        <v>83</v>
+        <v>83.181245728582795</v>
       </c>
       <c r="V9">
-        <v>84</v>
+        <v>84.613776118899906</v>
       </c>
       <c r="W9">
-        <v>84</v>
+        <v>84.635270143072205</v>
       </c>
       <c r="X9">
-        <v>83</v>
+        <v>83.661152539863707</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1540,73 +1540,73 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>64.5423319783485</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>63.104611991106701</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>66.126611267547602</v>
       </c>
       <c r="E10">
-        <v>66</v>
+        <v>66.363336709251897</v>
       </c>
       <c r="F10">
-        <v>66</v>
+        <v>66.795703561455696</v>
       </c>
       <c r="G10">
-        <v>66</v>
+        <v>66.385626691679306</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>65.281953892501704</v>
       </c>
       <c r="I10">
-        <v>65</v>
+        <v>65.9399852013496</v>
       </c>
       <c r="J10">
-        <v>66</v>
+        <v>66.478073056802998</v>
       </c>
       <c r="K10">
-        <v>63</v>
+        <v>63.3435872477895</v>
       </c>
       <c r="L10">
-        <v>62</v>
+        <v>62.895720708968803</v>
       </c>
       <c r="M10">
-        <v>63</v>
+        <v>63.528020130490297</v>
       </c>
       <c r="N10">
-        <v>66</v>
+        <v>66.702120587134601</v>
       </c>
       <c r="O10">
-        <v>63</v>
+        <v>63.967526017576603</v>
       </c>
       <c r="P10">
-        <v>62</v>
+        <v>62.304570127696302</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>65.869197180695096</v>
       </c>
       <c r="R10">
-        <v>64</v>
+        <v>64.200015715657202</v>
       </c>
       <c r="S10">
-        <v>62</v>
+        <v>62.695402339502103</v>
       </c>
       <c r="T10">
-        <v>62</v>
+        <v>62.178967698963298</v>
       </c>
       <c r="U10">
-        <v>62</v>
+        <v>62.412289265330898</v>
       </c>
       <c r="V10">
-        <v>62</v>
+        <v>62.8512751779204</v>
       </c>
       <c r="W10">
-        <v>64</v>
+        <v>64.514738865677401</v>
       </c>
       <c r="X10">
-        <v>66</v>
+        <v>66.459688607356696</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1614,73 +1614,73 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>29.036008979812799</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>30.9354161767398</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>31.8156708242775</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>31.601833743891198</v>
       </c>
       <c r="F11">
-        <v>31</v>
+        <v>31.240001964779701</v>
       </c>
       <c r="G11">
-        <v>29</v>
+        <v>29.055714132716499</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>31.6439797261677</v>
       </c>
       <c r="I11">
-        <v>33</v>
+        <v>33.789674652729502</v>
       </c>
       <c r="J11">
-        <v>31</v>
+        <v>31.471495796816999</v>
       </c>
       <c r="K11">
-        <v>32</v>
+        <v>32.2247350462779</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>31.752989142917901</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>33.105750166060297</v>
       </c>
       <c r="N11">
-        <v>29</v>
+        <v>29.141492624738198</v>
       </c>
       <c r="O11">
-        <v>31</v>
+        <v>31.4321455155184</v>
       </c>
       <c r="P11">
-        <v>32</v>
+        <v>32.903993241433099</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>33.036646310261602</v>
       </c>
       <c r="R11">
-        <v>30</v>
+        <v>30.189648337725099</v>
       </c>
       <c r="S11">
-        <v>32</v>
+        <v>32.627705859097901</v>
       </c>
       <c r="T11">
-        <v>31</v>
+        <v>31.378979481106001</v>
       </c>
       <c r="U11">
-        <v>30</v>
+        <v>30.142284306920999</v>
       </c>
       <c r="V11">
-        <v>29</v>
+        <v>29.106577759125901</v>
       </c>
       <c r="W11">
-        <v>29</v>
+        <v>29.4391607451143</v>
       </c>
       <c r="X11">
-        <v>33</v>
+        <v>33.554185591826702</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1688,73 +1688,73 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>98.5792068284902</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>94.406885238955795</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>94.759591411145607</v>
       </c>
       <c r="E12">
-        <v>94</v>
+        <v>94.354613887628702</v>
       </c>
       <c r="F12">
-        <v>94</v>
+        <v>94.438297032054706</v>
       </c>
       <c r="G12">
-        <v>96</v>
+        <v>96.205711896453806</v>
       </c>
       <c r="H12">
-        <v>96</v>
+        <v>96.079194488680699</v>
       </c>
       <c r="I12">
-        <v>96</v>
+        <v>96.778108553918997</v>
       </c>
       <c r="J12">
-        <v>96</v>
+        <v>96.195213439857895</v>
       </c>
       <c r="K12">
-        <v>97</v>
+        <v>97.151486769041895</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>96.669252186694095</v>
       </c>
       <c r="M12">
-        <v>95</v>
+        <v>95.675061708177907</v>
       </c>
       <c r="N12">
-        <v>98</v>
+        <v>98.333875991236994</v>
       </c>
       <c r="O12">
-        <v>98</v>
+        <v>98.236943222386699</v>
       </c>
       <c r="P12">
-        <v>95</v>
+        <v>95.708395380956304</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>94.799609815875598</v>
       </c>
       <c r="R12">
-        <v>97</v>
+        <v>97.190876359813103</v>
       </c>
       <c r="S12">
-        <v>98</v>
+        <v>98.172784078307799</v>
       </c>
       <c r="T12">
-        <v>97</v>
+        <v>97.6631510724755</v>
       </c>
       <c r="U12">
-        <v>94</v>
+        <v>94.650243007632298</v>
       </c>
       <c r="V12">
-        <v>95</v>
+        <v>95.057279094632193</v>
       </c>
       <c r="W12">
-        <v>95</v>
+        <v>95.5033993200162</v>
       </c>
       <c r="X12">
-        <v>94</v>
+        <v>94.170714010494706</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1762,73 +1762,73 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>26.908761783677001</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>25.8113327612683</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>28.885237591599399</v>
       </c>
       <c r="E13">
-        <v>27</v>
+        <v>27.158589761342299</v>
       </c>
       <c r="F13">
-        <v>26</v>
+        <v>26.021062963880201</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>26.900091156829699</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>27.462561179631098</v>
       </c>
       <c r="I13">
-        <v>27</v>
+        <v>27.987761464809399</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>25.528759174042801</v>
       </c>
       <c r="K13">
-        <v>28</v>
+        <v>28.2564760715711</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>25.8748993409191</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>28.739454142135099</v>
       </c>
       <c r="N13">
-        <v>25</v>
+        <v>25.822782561218801</v>
       </c>
       <c r="O13">
-        <v>27</v>
+        <v>27.323100739439401</v>
       </c>
       <c r="P13">
-        <v>29</v>
+        <v>29.466254840563099</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>25.702528693309699</v>
       </c>
       <c r="R13">
-        <v>25</v>
+        <v>25.860360578754499</v>
       </c>
       <c r="S13">
-        <v>28</v>
+        <v>28.955940231641499</v>
       </c>
       <c r="T13">
-        <v>28</v>
+        <v>28.000066305066699</v>
       </c>
       <c r="U13">
-        <v>27</v>
+        <v>27.912613570292901</v>
       </c>
       <c r="V13">
-        <v>26</v>
+        <v>26.494041612199101</v>
       </c>
       <c r="W13">
-        <v>26</v>
+        <v>26.306015290193201</v>
       </c>
       <c r="X13">
-        <v>25</v>
+        <v>25.8375184935386</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1836,73 +1836,73 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>67.510147142962296</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>67.636902917749197</v>
       </c>
       <c r="D14">
-        <v>64</v>
+        <v>64.391515993384303</v>
       </c>
       <c r="E14">
-        <v>66</v>
+        <v>66.9772256085854</v>
       </c>
       <c r="F14">
-        <v>63</v>
+        <v>63.530965266306303</v>
       </c>
       <c r="G14">
-        <v>67</v>
+        <v>67.676177482352699</v>
       </c>
       <c r="H14">
-        <v>63</v>
+        <v>63.5815764502589</v>
       </c>
       <c r="I14">
-        <v>66</v>
+        <v>66.115134398441796</v>
       </c>
       <c r="J14">
-        <v>67</v>
+        <v>67.954800718444304</v>
       </c>
       <c r="K14">
-        <v>64</v>
+        <v>64.868967077345999</v>
       </c>
       <c r="L14">
-        <v>67</v>
+        <v>67.892246051610499</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>65.562634285340906</v>
       </c>
       <c r="N14">
-        <v>65</v>
+        <v>65.156368567861705</v>
       </c>
       <c r="O14">
-        <v>63</v>
+        <v>63.055566948527101</v>
       </c>
       <c r="P14">
-        <v>65</v>
+        <v>65.259804770509703</v>
       </c>
       <c r="Q14">
-        <v>67</v>
+        <v>67.357876276918802</v>
       </c>
       <c r="R14">
-        <v>63</v>
+        <v>63.420815246064699</v>
       </c>
       <c r="S14">
-        <v>66</v>
+        <v>66.100661119566794</v>
       </c>
       <c r="T14">
-        <v>66</v>
+        <v>66.905983598413798</v>
       </c>
       <c r="U14">
-        <v>64</v>
+        <v>64.091036583604406</v>
       </c>
       <c r="V14">
-        <v>65</v>
+        <v>65.333764684167605</v>
       </c>
       <c r="W14">
-        <v>67</v>
+        <v>67.2902259385299</v>
       </c>
       <c r="X14">
-        <v>67</v>
+        <v>67.497539119148698</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1910,73 +1910,73 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>41.705703682251098</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>42.162650682322699</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>39.641780489684699</v>
       </c>
       <c r="E15">
-        <v>43</v>
+        <v>43.790008792232797</v>
       </c>
       <c r="F15">
-        <v>42</v>
+        <v>42.684484317818502</v>
       </c>
       <c r="G15">
-        <v>42</v>
+        <v>42.092190618890697</v>
       </c>
       <c r="H15">
-        <v>39</v>
+        <v>39.951495933282303</v>
       </c>
       <c r="I15">
-        <v>39</v>
+        <v>39.0541874825417</v>
       </c>
       <c r="J15">
-        <v>40</v>
+        <v>40.781688551815797</v>
       </c>
       <c r="K15">
-        <v>43</v>
+        <v>43.886678629443402</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>43.617041025597302</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>40.422338690269498</v>
       </c>
       <c r="N15">
-        <v>40</v>
+        <v>40.7884703206852</v>
       </c>
       <c r="O15">
-        <v>43</v>
+        <v>43.378198372590198</v>
       </c>
       <c r="P15">
-        <v>39</v>
+        <v>39.517821860940103</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>39.859026313964897</v>
       </c>
       <c r="R15">
-        <v>43</v>
+        <v>43.482611759641998</v>
       </c>
       <c r="S15">
-        <v>42</v>
+        <v>42.3356097292966</v>
       </c>
       <c r="T15">
-        <v>42</v>
+        <v>42.116566665565998</v>
       </c>
       <c r="U15">
-        <v>40</v>
+        <v>40.250012876132097</v>
       </c>
       <c r="V15">
-        <v>42</v>
+        <v>42.695480008044299</v>
       </c>
       <c r="W15">
-        <v>39</v>
+        <v>39.0331882699818</v>
       </c>
       <c r="X15">
-        <v>40</v>
+        <v>40.888800115472201</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1984,73 +1984,73 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>74.0465336449425</v>
       </c>
       <c r="C16">
-        <v>71</v>
+        <v>71.124408311600305</v>
       </c>
       <c r="D16">
-        <v>72</v>
+        <v>72.8388373498438</v>
       </c>
       <c r="E16">
-        <v>71</v>
+        <v>71.536960512189793</v>
       </c>
       <c r="F16">
-        <v>74</v>
+        <v>74.949860149004706</v>
       </c>
       <c r="G16">
-        <v>71</v>
+        <v>71.628875288008402</v>
       </c>
       <c r="H16">
-        <v>73</v>
+        <v>73.923695902950996</v>
       </c>
       <c r="I16">
-        <v>70</v>
+        <v>70.547400978154897</v>
       </c>
       <c r="J16">
-        <v>72</v>
+        <v>72.571240801898895</v>
       </c>
       <c r="K16">
-        <v>74</v>
+        <v>74.917635878210305</v>
       </c>
       <c r="L16">
-        <v>72</v>
+        <v>72.548172741083903</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>71.779250460900002</v>
       </c>
       <c r="N16">
-        <v>71</v>
+        <v>71.795309638181706</v>
       </c>
       <c r="O16">
-        <v>71</v>
+        <v>71.171401945072503</v>
       </c>
       <c r="P16">
-        <v>73</v>
+        <v>73.593801855687602</v>
       </c>
       <c r="Q16">
-        <v>73</v>
+        <v>73.498641413416195</v>
       </c>
       <c r="R16">
-        <v>71</v>
+        <v>71.399244178953694</v>
       </c>
       <c r="S16">
-        <v>70</v>
+        <v>70.128429652314793</v>
       </c>
       <c r="T16">
-        <v>72</v>
+        <v>72.031359942782998</v>
       </c>
       <c r="U16">
-        <v>74</v>
+        <v>74.537055798930396</v>
       </c>
       <c r="V16">
-        <v>72</v>
+        <v>72.986143775378295</v>
       </c>
       <c r="W16">
-        <v>73</v>
+        <v>73.673080016362704</v>
       </c>
       <c r="X16">
-        <v>72</v>
+        <v>72.414829253288701</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -2058,73 +2058,73 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>61.3806875475453</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>59.338316661152398</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>60.504732266862398</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>61.493367986887598</v>
       </c>
       <c r="F17">
-        <v>61</v>
+        <v>61.180169694109097</v>
       </c>
       <c r="G17">
-        <v>59</v>
+        <v>59.862392868271698</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>62.3481677940797</v>
       </c>
       <c r="I17">
-        <v>60</v>
+        <v>60.684169630208601</v>
       </c>
       <c r="J17">
-        <v>62</v>
+        <v>62.251057741211802</v>
       </c>
       <c r="K17">
-        <v>60</v>
+        <v>60.0094415544798</v>
       </c>
       <c r="L17">
-        <v>61</v>
+        <v>61.305430779008802</v>
       </c>
       <c r="M17">
-        <v>62</v>
+        <v>62.409306373465</v>
       </c>
       <c r="N17">
-        <v>63</v>
+        <v>63.075361361295698</v>
       </c>
       <c r="O17">
-        <v>60</v>
+        <v>60.129869741112401</v>
       </c>
       <c r="P17">
-        <v>60</v>
+        <v>60.920475485973498</v>
       </c>
       <c r="Q17">
-        <v>62</v>
+        <v>62.615021024667698</v>
       </c>
       <c r="R17">
-        <v>61</v>
+        <v>61.175588162420397</v>
       </c>
       <c r="S17">
-        <v>60</v>
+        <v>60.655815923727801</v>
       </c>
       <c r="T17">
-        <v>60</v>
+        <v>60.1924810691388</v>
       </c>
       <c r="U17">
-        <v>62</v>
+        <v>62.343959209091103</v>
       </c>
       <c r="V17">
-        <v>59</v>
+        <v>59.879519619735298</v>
       </c>
       <c r="W17">
-        <v>59</v>
+        <v>59.626265147635301</v>
       </c>
       <c r="X17">
-        <v>59</v>
+        <v>59.398473701197602</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -2132,73 +2132,73 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>78.658195089748403</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>78.196355109934103</v>
       </c>
       <c r="D18">
-        <v>76</v>
+        <v>76.788063133070906</v>
       </c>
       <c r="E18">
-        <v>74</v>
+        <v>74.802414773061599</v>
       </c>
       <c r="F18">
-        <v>76</v>
+        <v>76.531776091381502</v>
       </c>
       <c r="G18">
-        <v>74</v>
+        <v>74.214084029198901</v>
       </c>
       <c r="H18">
-        <v>74</v>
+        <v>74.234621556095206</v>
       </c>
       <c r="I18">
-        <v>76</v>
+        <v>76.4664509686271</v>
       </c>
       <c r="J18">
-        <v>78</v>
+        <v>78.390282550470502</v>
       </c>
       <c r="K18">
-        <v>78</v>
+        <v>78.712584807769602</v>
       </c>
       <c r="L18">
-        <v>77</v>
+        <v>77.580754588636296</v>
       </c>
       <c r="M18">
-        <v>76</v>
+        <v>76.7638476020051</v>
       </c>
       <c r="N18">
-        <v>74</v>
+        <v>74.921827766716106</v>
       </c>
       <c r="O18">
-        <v>74</v>
+        <v>74.100441561603205</v>
       </c>
       <c r="P18">
-        <v>74</v>
+        <v>74.6919335604602</v>
       </c>
       <c r="Q18">
-        <v>75</v>
+        <v>75.014447209314199</v>
       </c>
       <c r="R18">
-        <v>76</v>
+        <v>76.927438923532094</v>
       </c>
       <c r="S18">
-        <v>77</v>
+        <v>77.064366811667497</v>
       </c>
       <c r="T18">
-        <v>74</v>
+        <v>74.2374335774998</v>
       </c>
       <c r="U18">
-        <v>78</v>
+        <v>78.963031138015296</v>
       </c>
       <c r="V18">
-        <v>78</v>
+        <v>78.070440626772097</v>
       </c>
       <c r="W18">
-        <v>76</v>
+        <v>76.614830749014999</v>
       </c>
       <c r="X18">
-        <v>78</v>
+        <v>78.056414563510103</v>
       </c>
     </row>
   </sheetData>
